--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -42,7 +42,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>headers={"Connection":"keep-alive","Cache-Control":"max-age=0","Upgrade-Insecure-Requests":"1","User-Agent":"Mozilla/5.0 (Windows NT 6.1; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/63.0.3239.132 Safari/537.36 ","Accept":"text/html,application/xhtml+xml,application/xml;q=0.9,image/webp,image/apng,*/*;q=0.8","Accept-Encoding":"gzip, deflate","Accept-Language":"zh-CN,zh;q=0.9","Cookie":"__guid=182823328.3330076344210055700.1553051820356.2388; userNewsPort0=1; f_city=%E5%B9%BF%E5%B7%9E%7C101280101%7C; Hm_lvt_080dabacb001ad3dc8b9b9049b36d43b=1555485359; UM_distinctid=16a2a26fd913aa-061752bdb0e62a-454c092b-100200-16a2a26fd9249a; defaultCty=101040100; defaultCtyName=%u91CD%u5E86; Wa_lvt_1=1555485360; monitor_count=3; Hm_lpvt_080dabacb001ad3dc8b9b9049b36d43b=1555485533; CNZZDATA1262608253=1057709109-1555480085-%7C1555485502; Wa_lpvt_1=1555485533"}</t>
+    <t>{"Connection":"keep-alive","Cache-Control":"max-age=0","Upgrade-Insecure-Requests":"1","User-Agent":"Mozilla/5.0 (Windows NT 6.1; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/63.0.3239.132 Safari/537.36 ","Accept":"text/html,application/xhtml+xml,application/xml;q=0.9,image/webp,image/apng,*/*;q=0.8","Accept-Encoding":"gzip, deflate","Accept-Language":"zh-CN,zh;q=0.9","Cookie":"__guid=182823328.3330076344210055700.1553051820356.2388; userNewsPort0=1; f_city=%E5%B9%BF%E5%B7%9E%7C101280101%7C; Hm_lvt_080dabacb001ad3dc8b9b9049b36d43b=1555485359; UM_distinctid=16a2a26fd913aa-061752bdb0e62a-454c092b-100200-16a2a26fd9249a; defaultCty=101040100; defaultCtyName=%u91CD%u5E86; Wa_lvt_1=1555485360; monitor_count=3; Hm_lpvt_080dabacb001ad3dc8b9b9049b36d43b=1555485533; CNZZDATA1262608253=1057709109-1555480085-%7C1555485502; Wa_lpvt_1=1555485533"}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
